--- a/Material de Sonido/Tablas de sonido/CueSheet_nolineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/CueSheet_nolineal.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Principal" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="CueSheet intro" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="CueSheet Menu" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="CueSheet Nivel 1" sheetId="4" r:id="rId6"/>
+    <sheet name="Principal" sheetId="1" r:id="rId1"/>
+    <sheet name="CueSheet intro" sheetId="2" r:id="rId2"/>
+    <sheet name="CueSheet Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="CueSheet Nivel 1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="253">
   <si>
     <t>Cue-Sheet intro</t>
   </si>
@@ -340,9 +343,6 @@
     <t>para antorchas y otras cosas</t>
   </si>
   <si>
-    <t>SFX/Aparece bocadillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comunicar </t>
   </si>
   <si>
@@ -385,36 +385,24 @@
     <t>Sonará campanitas mágicas cuando aparezca el puzzle</t>
   </si>
   <si>
-    <t>SFX/efectos nivel superado</t>
-  </si>
-  <si>
     <t>Celebración fin de nivel</t>
   </si>
   <si>
     <t>efectos de sonido de celebracion por superar el nivel</t>
   </si>
   <si>
-    <t>SFX/Derrota de la muerte</t>
-  </si>
-  <si>
     <t>Celebración de triunfo</t>
   </si>
   <si>
     <t>Sonido de triunfo cuando vencemos a la muerte</t>
   </si>
   <si>
-    <t>SFX/Derrota del jugador</t>
-  </si>
-  <si>
     <t>Sonido cuando te matan, que la muerte se ria por ejemplo</t>
   </si>
   <si>
     <t>SFX/Movimientos bloques</t>
   </si>
   <si>
-    <t>SFX/Personaje grito muerte masculino</t>
-  </si>
-  <si>
     <t>SFX/Personaje grito muerte femenino</t>
   </si>
   <si>
@@ -755,102 +743,135 @@
   </si>
   <si>
     <t>La muerte va hablando durante el nivel, desanimando al jugador</t>
+  </si>
+  <si>
+    <t>SFX/Dialogo tipo1</t>
+  </si>
+  <si>
+    <t>SFX/Dialogo tipo2</t>
+  </si>
+  <si>
+    <t>SFX/pulsar boton de menu</t>
+  </si>
+  <si>
+    <t>SFX/ruido dejar objeto</t>
+  </si>
+  <si>
+    <t>Simboliza soltar objeto</t>
+  </si>
+  <si>
+    <t>ruido que represente quitar un objeto estándar en el inventario</t>
+  </si>
+  <si>
+    <t>SFX/Victoria en el puzzle</t>
+  </si>
+  <si>
+    <t>SFX/Derrota en el puzzle</t>
+  </si>
+  <si>
+    <t>SFX/Boss nos derrota</t>
+  </si>
+  <si>
+    <t>SFX/Boss derrotado</t>
+  </si>
+  <si>
+    <t>SFX/Nivel superado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="17">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
@@ -860,7 +881,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -888,7 +909,13 @@
     </fill>
   </fills>
   <borders count="40">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -900,6 +927,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -910,6 +938,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -924,6 +953,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -936,6 +966,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -950,6 +981,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -958,12 +990,14 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -974,6 +1008,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -982,6 +1017,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -992,6 +1028,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1004,6 +1041,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1014,6 +1052,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1026,6 +1065,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1040,42 +1080,65 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1090,11 +1153,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1105,6 +1173,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1115,6 +1184,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1123,6 +1193,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1135,6 +1206,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1145,6 +1217,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1155,6 +1228,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1163,6 +1237,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1175,11 +1250,16 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1188,27 +1268,40 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1217,9 +1310,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1228,6 +1323,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1236,317 +1334,316 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="108">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="23" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="27" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="30" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1563,34 +1660,61 @@
               </a:solidFill>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Principal!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Música</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Foley</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Voces</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Principal!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1601,15 +1725,20 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1618,9 +1747,9 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="3038475"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1629,7 +1758,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1638,36 +1767,305 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="25.78"/>
-    <col customWidth="1" min="3" max="8" width="8.11"/>
-    <col customWidth="1" min="9" max="9" width="7.67"/>
-    <col customWidth="1" min="10" max="26" width="11.44"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="26" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="31.5">
       <c r="B1" s="45" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +2084,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="B2" s="47" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +2098,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="51"/>
       <c r="B3" s="52" t="s">
         <v>41</v>
@@ -1744,7 +2142,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75">
       <c r="B4" s="56" t="s">
         <v>49</v>
       </c>
@@ -1756,7 +2154,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="58"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75">
       <c r="B5" s="56" t="s">
         <v>50</v>
       </c>
@@ -1767,39 +2165,39 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="58">
-        <f t="shared" ref="I5:I6" si="1">SUM(C5:H5)</f>
+        <f t="shared" ref="I5:I6" si="0">SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75">
       <c r="B6" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="57">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="33">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="33">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="F6" s="33">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="G6" s="33">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="H6" s="33">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="J6" s="59"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75">
       <c r="B7" s="60" t="s">
         <v>62</v>
       </c>
@@ -1811,7 +2209,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="58"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75">
       <c r="B8" s="60" t="s">
         <v>70</v>
       </c>
@@ -1823,7 +2221,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75">
       <c r="B9" s="60"/>
       <c r="C9" s="57"/>
       <c r="D9" s="33"/>
@@ -1833,7 +2231,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="58"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75">
       <c r="B10" s="60"/>
       <c r="C10" s="57"/>
       <c r="D10" s="33"/>
@@ -1843,7 +2241,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="58"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75">
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
       <c r="D11" s="63"/>
@@ -1853,46 +2251,46 @@
       <c r="H11" s="63"/>
       <c r="I11" s="64"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75">
       <c r="B12" s="65" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="66">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="66">
-        <f t="shared" ref="D12:I12" si="2">SUM(D5:D11)</f>
+        <f t="shared" ref="D12:I12" si="1">SUM(D5:D11)</f>
         <v>7</v>
       </c>
       <c r="E12" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F12" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G12" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H12" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I12" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75">
       <c r="B13" s="33"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75">
       <c r="B14" s="33"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75">
       <c r="B15" s="33"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2877,41 +3275,38 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Cue Sheet Menú" location="null!A1" ref="B4"/>
-    <hyperlink display="Cue sheet de la intro" location="CueSheet intro!A1" ref="B5"/>
-    <hyperlink display="Cue sheet del nivel 1" location="CueSheet Nivel 1!A1" ref="B6"/>
+    <hyperlink ref="B4" location="null!A1" display="Cue Sheet Menú"/>
+    <hyperlink ref="B5" location="CueSheet intro!A1" display="Cue sheet de la intro"/>
+    <hyperlink ref="B6" location="CueSheet Nivel 1!A1" display="Cue sheet del nivel 1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.67"/>
-    <col customWidth="1" min="2" max="3" width="6.67"/>
-    <col customWidth="1" min="4" max="4" width="10.67"/>
-    <col customWidth="1" min="5" max="5" width="21.22"/>
-    <col customWidth="1" min="6" max="11" width="2.0"/>
-    <col customWidth="1" min="12" max="12" width="7.33"/>
-    <col customWidth="1" min="13" max="13" width="20.33"/>
-    <col customWidth="1" min="14" max="14" width="12.22"/>
-    <col customWidth="1" min="15" max="15" width="8.67"/>
-    <col customWidth="1" min="16" max="16" width="32.33"/>
-    <col customWidth="1" min="17" max="17" width="77.67"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="32.375" customWidth="1"/>
+    <col min="17" max="17" width="77.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="31.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2934,7 +3329,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2975,7 +3370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:17" ht="13.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
@@ -3016,7 +3411,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:17" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -3037,11 +3432,11 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:17" ht="13.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="43"/>
       <c r="C5" s="44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="69" t="s">
@@ -3070,7 +3465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="43"/>
       <c r="C6" s="78"/>
@@ -3089,7 +3484,7 @@
       <c r="P6" s="75"/>
       <c r="Q6" s="82"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:17" ht="13.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="43"/>
       <c r="C7" s="83"/>
@@ -3108,7 +3503,7 @@
       <c r="P7" s="75"/>
       <c r="Q7" s="82"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="43"/>
       <c r="C8" s="83"/>
@@ -3127,7 +3522,7 @@
       <c r="P8" s="75"/>
       <c r="Q8" s="82"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="43"/>
       <c r="C9" s="83"/>
@@ -3146,7 +3541,7 @@
       <c r="P9" s="75"/>
       <c r="Q9" s="82"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="43"/>
       <c r="C10" s="83"/>
@@ -3165,7 +3560,7 @@
       <c r="P10" s="75"/>
       <c r="Q10" s="82"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -3184,12 +3579,12 @@
       <c r="P11" s="94"/>
       <c r="Q11" s="95"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="96"/>
       <c r="C12" s="1"/>
       <c r="D12" s="97" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" s="97"/>
       <c r="F12" s="98"/>
@@ -3205,12 +3600,12 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="97" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="99"/>
@@ -3226,7 +3621,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3238,7 +3633,7 @@
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
       <c r="K14" s="102" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L14" s="103"/>
       <c r="M14" s="99"/>
@@ -3247,8 +3642,8 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4234,36 +4629,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.67"/>
-    <col customWidth="1" min="2" max="2" width="34.22"/>
-    <col customWidth="1" min="3" max="8" width="2.11"/>
-    <col customWidth="1" min="9" max="9" width="7.11"/>
-    <col customWidth="1" min="10" max="10" width="23.33"/>
-    <col customWidth="1" min="11" max="11" width="11.33"/>
-    <col customWidth="1" min="12" max="12" width="10.67"/>
-    <col customWidth="1" min="13" max="13" width="89.44"/>
-    <col customWidth="1" min="14" max="14" width="110.89"/>
-    <col customWidth="1" min="15" max="23" width="10.44"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="89.5" customWidth="1"/>
+    <col min="14" max="14" width="110.875" customWidth="1"/>
+    <col min="15" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4285,7 +4678,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -4317,7 +4710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
@@ -4351,7 +4744,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="s">
         <v>29</v>
@@ -4369,7 +4762,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
         <v>31</v>
@@ -4388,7 +4781,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="31" t="s">
         <v>32</v>
@@ -4412,9 +4805,11 @@
       <c r="N6" s="35"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="A7" s="35"/>
-      <c r="B7" s="31"/>
+      <c r="B7" s="91" t="s">
+        <v>244</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -4429,7 +4824,7 @@
       <c r="N7" s="35"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:15" ht="13.5" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="31"/>
       <c r="C8" s="33"/>
@@ -4446,7 +4841,7 @@
       <c r="N8" s="35"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="31"/>
       <c r="C9" s="33"/>
@@ -4463,7 +4858,7 @@
       <c r="N9" s="35"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="31"/>
       <c r="C10" s="33"/>
@@ -4480,7 +4875,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="31"/>
       <c r="C11" s="33"/>
@@ -4497,7 +4892,7 @@
       <c r="N11" s="35"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="31"/>
       <c r="C12" s="30"/>
@@ -4514,7 +4909,7 @@
       <c r="N12" s="35"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
@@ -4529,28 +4924,28 @@
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="13.5" customHeight="1"/>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20">
+    <row r="15" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="17" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="18" spans="17:23" ht="13.5" customHeight="1"/>
+    <row r="19" spans="17:23" ht="13.5" customHeight="1"/>
+    <row r="20" spans="17:23" ht="15.75">
       <c r="W20" s="30"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="21" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="22" spans="17:23" ht="15.75" customHeight="1">
       <c r="Q22" s="41"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="23" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="24" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="25" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="26" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="27" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="28" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="29" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="30" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="31" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="32" spans="17:23" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5520,36 +5915,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.67"/>
-    <col customWidth="1" min="2" max="2" width="34.22"/>
-    <col customWidth="1" min="3" max="8" width="2.11"/>
-    <col customWidth="1" min="9" max="9" width="7.11"/>
-    <col customWidth="1" min="10" max="10" width="23.33"/>
-    <col customWidth="1" min="11" max="11" width="11.33"/>
-    <col customWidth="1" min="12" max="12" width="10.67"/>
-    <col customWidth="1" min="13" max="13" width="89.44"/>
-    <col customWidth="1" min="14" max="14" width="110.89"/>
-    <col customWidth="1" min="15" max="23" width="10.44"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="89.5" customWidth="1"/>
+    <col min="14" max="14" width="110.875" customWidth="1"/>
+    <col min="15" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5964,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -5603,7 +5996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
@@ -5637,7 +6030,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="17" t="s">
         <v>29</v>
@@ -5655,7 +6048,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
         <v>31</v>
@@ -5674,7 +6067,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="31" t="s">
         <v>52</v>
@@ -5700,7 +6093,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="31" t="s">
         <v>54</v>
@@ -5731,7 +6124,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:15" ht="13.5" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="31" t="s">
         <v>55</v>
@@ -5762,7 +6155,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="31" t="s">
         <v>58</v>
@@ -5793,7 +6186,7 @@
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="31" t="s">
         <v>61</v>
@@ -5824,7 +6217,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="31" t="s">
         <v>65</v>
@@ -5855,7 +6248,7 @@
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="31" t="s">
         <v>68</v>
@@ -5886,7 +6279,7 @@
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="A13" s="35"/>
       <c r="B13" s="31" t="s">
         <v>72</v>
@@ -5917,7 +6310,7 @@
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="35"/>
       <c r="B14" s="31" t="s">
         <v>78</v>
@@ -5950,7 +6343,7 @@
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="31" t="s">
         <v>82</v>
@@ -5983,7 +6376,7 @@
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:15" ht="13.5" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="31" t="s">
         <v>88</v>
@@ -6016,7 +6409,7 @@
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="31" t="s">
         <v>93</v>
@@ -6049,7 +6442,7 @@
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="31" t="s">
         <v>97</v>
@@ -6082,7 +6475,7 @@
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="31" t="s">
         <v>102</v>
@@ -6114,7 +6507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" ht="15.75">
       <c r="A20" s="35"/>
       <c r="B20" s="31" t="s">
         <v>105</v>
@@ -6148,10 +6541,10 @@
       <c r="O20" s="30"/>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="31" t="s">
-        <v>108</v>
+      <c r="B21" s="91" t="s">
+        <v>242</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -6165,7 +6558,7 @@
         <v>33</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="s">
@@ -6173,1406 +6566,1394 @@
       </c>
       <c r="M21" s="34"/>
       <c r="N21" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="35"/>
-      <c r="B22" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33" t="s">
+      <c r="B22" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="32"/>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="76" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O22" s="30"/>
       <c r="Q22" s="41"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="35"/>
-      <c r="B23" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30" t="s">
+      <c r="B23" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="32"/>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="76" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="B24" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="I24" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="33" t="s">
+      <c r="I24" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="35"/>
-      <c r="B25" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33" t="s">
+      <c r="B25" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="32"/>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33" t="s">
+      <c r="J25" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="36" t="s">
         <v>35</v>
       </c>
       <c r="M25" s="32"/>
-      <c r="N25" s="35" t="s">
-        <v>122</v>
+      <c r="N25" s="107" t="s">
+        <v>247</v>
       </c>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="35"/>
-      <c r="B26" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="B26" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="32"/>
-      <c r="I26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="33" t="s">
+      <c r="I26" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="76" t="s">
         <v>35</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O26" s="30"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="35"/>
-      <c r="B27" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="B27" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="76"/>
+      <c r="G27" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="76" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="35"/>
-      <c r="B28" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="33" t="s">
+      <c r="F28" s="76"/>
+      <c r="G28" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>76</v>
-      </c>
+      <c r="M28" s="32"/>
       <c r="N28" s="35" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="35"/>
-      <c r="B29" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="B29" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="H29" s="32"/>
-      <c r="I29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="33" t="s">
+      <c r="I29" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M29" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="35"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="35" t="s">
+        <v>121</v>
+      </c>
       <c r="O29" s="30"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="35"/>
-      <c r="B30" s="31" t="s">
-        <v>132</v>
+      <c r="B30" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="32" t="s">
+      <c r="G30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="N30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I32" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="33" t="s">
+      <c r="J32" s="30"/>
+      <c r="K32" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="30"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="30"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>35</v>
+      <c r="L32" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="M32" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="35"/>
-      <c r="B33" s="31" t="s">
-        <v>136</v>
+      <c r="B33" s="91" t="s">
+        <v>127</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="34" t="s">
+      <c r="L33" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="N33" s="35" t="s">
-        <v>135</v>
-      </c>
+      <c r="N33" s="35"/>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="35"/>
-      <c r="B34" s="31" t="s">
-        <v>137</v>
+      <c r="B34" s="91" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="E34" s="76"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33" t="s">
+      <c r="H34" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="L34" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="34"/>
+      <c r="M34" s="34" t="s">
+        <v>76</v>
+      </c>
       <c r="N34" s="35"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="35"/>
-      <c r="B35" s="31" t="s">
-        <v>138</v>
+      <c r="B35" s="91" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33" t="s">
+      <c r="H35" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J35" s="30"/>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="35" t="s">
-        <v>139</v>
-      </c>
+      <c r="N35" s="35"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="31" t="s">
-        <v>140</v>
+      <c r="B36" s="91" t="s">
+        <v>129</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E36" s="76"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33" t="s">
+      <c r="H36" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J36" s="30"/>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M36" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="35"/>
-      <c r="B37" s="31" t="s">
-        <v>142</v>
+      <c r="B37" s="91" t="s">
+        <v>131</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E37" s="76"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33" t="s">
+      <c r="H37" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="30"/>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="35"/>
-      <c r="B38" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33" t="s">
+      <c r="B38" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J38" s="30"/>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="N38" s="35" t="s">
-        <v>146</v>
-      </c>
+      <c r="M38" s="34"/>
+      <c r="N38" s="35"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="35"/>
-      <c r="B39" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="B39" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="30"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J39" s="30"/>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M39" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N39" s="90" t="s">
-        <v>148</v>
+      <c r="N39" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="35"/>
       <c r="B40" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J40" s="30"/>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="33" t="s">
+      <c r="L40" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="35"/>
       <c r="B41" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="32"/>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J41" s="30"/>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M41" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N41" s="90" t="s">
-        <v>143</v>
+      <c r="N41" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
+      <c r="B42" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="76"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A43" s="35"/>
+      <c r="B43" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33" t="s">
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="33" t="s">
+      <c r="J43" s="30"/>
+      <c r="K43" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="O42" s="30"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M43" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N43" s="35" t="s">
-        <v>155</v>
+      <c r="N43" s="90" t="s">
+        <v>143</v>
       </c>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="35"/>
-      <c r="B44" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
+      <c r="B44" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="33"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="32"/>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J44" s="30"/>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L44" s="33" t="s">
+      <c r="L44" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M44" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="A45" s="35"/>
-      <c r="B45" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="33"/>
+      <c r="B45" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J45" s="30"/>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M45" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N45" s="35" t="s">
-        <v>159</v>
+      <c r="N45" s="90" t="s">
+        <v>138</v>
       </c>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="35"/>
-      <c r="B46" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="33"/>
+      <c r="B46" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J46" s="30"/>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M46" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="35"/>
-      <c r="B47" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="33"/>
+      <c r="B47" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J47" s="30"/>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="33" t="s">
+      <c r="L47" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M47" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="35"/>
-      <c r="B48" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="36" t="s">
+      <c r="B48" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="30"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J48" s="30"/>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="33" t="s">
+      <c r="L48" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M48" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N48" s="35"/>
+      <c r="N48" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="35"/>
-      <c r="B49" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="36" t="s">
+      <c r="B49" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="76"/>
       <c r="H49" s="32"/>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J49" s="30"/>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="76" t="s">
         <v>35</v>
       </c>
       <c r="M49" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N49" s="35"/>
+      <c r="N49" s="35" t="s">
+        <v>154</v>
+      </c>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="35"/>
-      <c r="B50" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="B50" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="76"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J50" s="30"/>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="33" t="s">
-        <v>99</v>
+      <c r="L50" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="M50" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N50" s="35"/>
+      <c r="N50" s="35" t="s">
+        <v>156</v>
+      </c>
       <c r="O50" s="30"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="A51" s="35"/>
-      <c r="B51" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="B51" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="76"/>
       <c r="H51" s="32"/>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J51" s="30"/>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M51" s="34"/>
-      <c r="N51" s="35"/>
+      <c r="L51" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>158</v>
+      </c>
       <c r="O51" s="30"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1">
       <c r="A52" s="35"/>
-      <c r="B52" s="31" t="s">
-        <v>168</v>
+      <c r="B52" s="91" t="s">
+        <v>159</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="30"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J52" s="30"/>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="33" t="s">
-        <v>99</v>
+      <c r="L52" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="M52" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="35" t="s">
-        <v>169</v>
-      </c>
+      <c r="N52" s="35"/>
       <c r="O52" s="30"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1">
       <c r="A53" s="35"/>
-      <c r="B53" s="31" t="s">
-        <v>170</v>
+      <c r="B53" s="91" t="s">
+        <v>160</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="30"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J53" s="30"/>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="33" t="s">
-        <v>99</v>
+      <c r="L53" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="M53" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N53" s="35" t="s">
-        <v>171</v>
-      </c>
+      <c r="N53" s="35"/>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1">
       <c r="A54" s="35"/>
-      <c r="B54" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33" t="s">
+      <c r="B54" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="H54" s="32"/>
-      <c r="I54" s="33" t="s">
+      <c r="I54" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J54" s="30"/>
-      <c r="K54" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L54" s="33" t="s">
+      <c r="K54" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="76" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>174</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N54" s="35"/>
       <c r="O54" s="30"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="33"/>
+      <c r="B55" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="H55" s="32"/>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J55" s="30"/>
-      <c r="K55" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L55" s="33" t="s">
+      <c r="K55" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="M55" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N55" s="35" t="s">
-        <v>176</v>
-      </c>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
       <c r="O55" s="30"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33" t="s">
+      <c r="B56" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" s="32"/>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J56" s="30"/>
-      <c r="K56" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="33" t="s">
+      <c r="K56" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="76" t="s">
         <v>99</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N56" s="23"/>
+      <c r="N56" s="35" t="s">
+        <v>164</v>
+      </c>
       <c r="O56" s="30"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="B57" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="30"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J57" s="30"/>
-      <c r="K57" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L57" s="33" t="s">
+      <c r="K57" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="76" t="s">
         <v>99</v>
       </c>
       <c r="M57" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N57" s="23"/>
+      <c r="N57" s="35" t="s">
+        <v>166</v>
+      </c>
       <c r="O57" s="30"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33" t="s">
+      <c r="B58" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J58" s="30"/>
-      <c r="K58" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M58" s="32"/>
+      <c r="K58" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="N58" s="35" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O58" s="30"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1">
       <c r="A59" s="35"/>
-      <c r="B59" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="B59" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="76"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J59" s="30"/>
-      <c r="K59" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L59" s="33" t="s">
-        <v>35</v>
+      <c r="K59" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="N59" s="35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O59" s="30"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1">
       <c r="A60" s="35"/>
       <c r="B60" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="33" t="s">
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J60" s="30"/>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="33" t="s">
-        <v>75</v>
+      <c r="L60" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="M60" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N60" s="35" t="s">
-        <v>184</v>
-      </c>
+      <c r="N60" s="23"/>
       <c r="O60" s="30"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="33"/>
+      <c r="B61" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J61" s="30"/>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L61" s="33" t="s">
-        <v>75</v>
+      <c r="L61" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="M61" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N61" s="35" t="s">
-        <v>186</v>
-      </c>
+      <c r="N61" s="23"/>
       <c r="O61" s="30"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1">
       <c r="A62" s="35"/>
-      <c r="B62" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33" t="s">
+      <c r="B62" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33" t="s">
+      <c r="F62" s="76"/>
+      <c r="G62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H62" s="32"/>
-      <c r="I62" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33" t="s">
-        <v>75</v>
+      <c r="I62" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="M62" s="32"/>
       <c r="N62" s="35" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O62" s="30"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1">
       <c r="A63" s="35"/>
-      <c r="B63" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
+      <c r="B63" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>191</v>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="J63" s="30"/>
-      <c r="K63" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>75</v>
+      <c r="K63" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="M63" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N63" s="23" t="s">
-        <v>192</v>
+      <c r="N63" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="O63" s="30"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1">
       <c r="A64" s="35"/>
-      <c r="B64" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33" t="s">
+      <c r="B64" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J64" s="30"/>
-      <c r="K64" s="33" t="s">
+      <c r="K64" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L64" s="33" t="s">
+      <c r="L64" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M64" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O64" s="30"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1">
       <c r="A65" s="35"/>
-      <c r="B65" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="33" t="s">
+      <c r="B65" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="33"/>
+      <c r="G65" s="76"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="33" t="s">
+      <c r="I65" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J65" s="30"/>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="33" t="s">
+      <c r="L65" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M65" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N65" s="35" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O65" s="30"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1">
       <c r="A66" s="35"/>
-      <c r="B66" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
+      <c r="B66" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L66" s="33" t="s">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="34" t="s">
-        <v>76</v>
-      </c>
+      <c r="M66" s="32"/>
       <c r="N66" s="35" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="O66" s="30"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1">
       <c r="A67" s="35"/>
-      <c r="B67" s="31" t="s">
-        <v>200</v>
+      <c r="B67" s="91" t="s">
+        <v>185</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -7580,680 +7961,696 @@
         <v>22</v>
       </c>
       <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33" t="s">
-        <v>73</v>
+      <c r="G67" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>186</v>
       </c>
       <c r="J67" s="30"/>
-      <c r="K67" s="33" t="s">
+      <c r="K67" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L67" s="36" t="s">
-        <v>99</v>
+      <c r="L67" s="76" t="s">
+        <v>75</v>
       </c>
       <c r="M67" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N67" s="35" t="s">
-        <v>201</v>
+      <c r="N67" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="O67" s="30"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1">
       <c r="A68" s="35"/>
-      <c r="B68" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33" t="s">
+      <c r="B68" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="33" t="s">
+      <c r="F68" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="76"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="30"/>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="33" t="s">
+      <c r="L68" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M68" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N68" s="35" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="O68" s="30"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1">
       <c r="A69" s="35"/>
-      <c r="B69" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33" t="s">
+      <c r="B69" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="33"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J69" s="30"/>
-      <c r="K69" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>35</v>
+      <c r="K69" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="76" t="s">
+        <v>75</v>
       </c>
       <c r="M69" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N69" s="23"/>
+      <c r="N69" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="O69" s="30"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1">
       <c r="A70" s="35"/>
-      <c r="B70" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33" t="s">
+      <c r="B70" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33" t="s">
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J70" s="30"/>
-      <c r="K70" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L70" s="33" t="s">
+      <c r="K70" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N70" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="O70" s="30"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A71" s="35"/>
+      <c r="B71" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J71" s="30"/>
+      <c r="K71" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N71" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O71" s="30"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A72" s="35"/>
+      <c r="B72" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J72" s="30"/>
+      <c r="K72" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N72" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="O72" s="30"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A73" s="35"/>
+      <c r="B73" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="76"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" s="30"/>
+      <c r="K73" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N73" s="23"/>
+      <c r="O73" s="30"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A74" s="35"/>
+      <c r="B74" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74" s="30"/>
+      <c r="K74" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N74" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="O74" s="30"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A75" s="35"/>
+      <c r="B75" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" s="30"/>
+      <c r="K75" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N75" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="O75" s="30"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A76" s="35"/>
+      <c r="B76" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="32"/>
+      <c r="I76" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" s="30"/>
+      <c r="K76" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N76" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="O70" s="30"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="35"/>
-      <c r="B71" s="31" t="s">
+      <c r="O76" s="30"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A77" s="35"/>
+      <c r="B77" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33" t="s">
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="84"/>
+      <c r="I77" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" s="30"/>
+      <c r="K77" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N77" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="O77" s="30"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A78" s="35"/>
+      <c r="B78" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33" t="s">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33" t="s">
+      <c r="H78" s="32"/>
+      <c r="I78" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="30"/>
-      <c r="K71" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M71" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="N71" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="O71" s="30"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="35"/>
-      <c r="B72" s="31" t="s">
+      <c r="J78" s="30"/>
+      <c r="K78" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J72" s="30"/>
-      <c r="K72" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M72" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N72" s="35" t="s">
+      <c r="M78" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N78" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="O72" s="30"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="35"/>
-      <c r="B73" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" s="84"/>
-      <c r="I73" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J73" s="30"/>
-      <c r="K73" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N73" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="O73" s="30"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J74" s="30"/>
-      <c r="K74" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L74" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="M74" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N74" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="O74" s="30"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="35"/>
-      <c r="B75" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="30"/>
-      <c r="K75" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L75" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="N75" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="O75" s="30"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="B76" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="30"/>
-      <c r="K76" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L76" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N76" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="O76" s="30"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="35"/>
-      <c r="B77" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J77" s="30"/>
-      <c r="K77" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L77" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N77" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="O77" s="30"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="B78" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J78" s="30"/>
-      <c r="K78" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L78" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M78" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="N78" s="35" t="s">
-        <v>225</v>
-      </c>
       <c r="O78" s="30"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1">
       <c r="A79" s="35"/>
       <c r="B79" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J79" s="30"/>
+      <c r="K79" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L79" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N79" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A80" s="35"/>
+      <c r="B80" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="33"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33" t="s">
+      <c r="G80" s="76"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J79" s="30"/>
-      <c r="K79" s="33" t="s">
+      <c r="J80" s="30"/>
+      <c r="K80" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L79" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M79" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N79" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="O79" s="30"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="35"/>
-      <c r="B80" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J80" s="30"/>
-      <c r="K80" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L80" s="33" t="s">
+      <c r="L80" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M80" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N80" s="35" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="O80" s="30"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1">
       <c r="A81" s="35"/>
-      <c r="B81" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33" t="s">
+      <c r="B81" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33" t="s">
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J81" s="30"/>
-      <c r="K81" s="33" t="s">
+      <c r="K81" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L81" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M81" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N81" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="O81" s="30"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A82" s="35"/>
+      <c r="B82" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="76"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="30"/>
+      <c r="K82" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L81" s="33" t="s">
+      <c r="L82" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M81" s="34"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="30"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="35"/>
-      <c r="B82" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="33" t="s">
+      <c r="M82" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="N82" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O82" s="30"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A83" s="35"/>
+      <c r="B83" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33" t="s">
+      <c r="G83" s="76"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J82" s="30"/>
-      <c r="K82" s="33" t="s">
+      <c r="J83" s="30"/>
+      <c r="K83" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L82" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M82" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N82" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="O82" s="30"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="35"/>
-      <c r="B83" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J83" s="30"/>
-      <c r="K83" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L83" s="33" t="s">
+      <c r="L83" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M83" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N83" s="35" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="O83" s="30"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1">
       <c r="A84" s="35"/>
-      <c r="B84" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33" t="s">
+      <c r="B84" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="33"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
       <c r="H84" s="32"/>
-      <c r="I84" s="33" t="s">
+      <c r="I84" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J84" s="30"/>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L84" s="33" t="s">
+      <c r="L84" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M84" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N84" s="35"/>
+      <c r="N84" s="35" t="s">
+        <v>224</v>
+      </c>
       <c r="O84" s="30"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:15" ht="15.75" customHeight="1">
       <c r="A85" s="35"/>
-      <c r="B85" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="33"/>
+      <c r="B85" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="H85" s="32"/>
-      <c r="I85" s="33" t="s">
+      <c r="I85" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J85" s="30"/>
-      <c r="K85" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L85" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" s="34" t="s">
-        <v>86</v>
-      </c>
+      <c r="K85" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L85" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" s="34"/>
       <c r="N85" s="35"/>
       <c r="O85" s="30"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1">
       <c r="A86" s="35"/>
       <c r="B86" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="33"/>
+      <c r="G86" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="H86" s="32"/>
-      <c r="I86" s="33" t="s">
+      <c r="I86" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J86" s="30"/>
-      <c r="K86" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="L86" s="33" t="s">
+      <c r="K86" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="M86" s="74" t="s">
-        <v>239</v>
+      <c r="M86" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="N86" s="35" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="O86" s="30"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1">
       <c r="A87" s="35"/>
       <c r="B87" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H87" s="32"/>
-      <c r="I87" s="33" t="s">
+      <c r="I87" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J87" s="30"/>
-      <c r="K87" s="33" t="s">
+      <c r="K87" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L87" s="33" t="s">
+      <c r="L87" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="N87" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="N87" s="35" t="s">
+        <v>229</v>
+      </c>
       <c r="O87" s="30"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1">
       <c r="A88" s="35"/>
       <c r="B88" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="33"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="32"/>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J88" s="30"/>
-      <c r="K88" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L88" s="33" t="s">
-        <v>35</v>
+      <c r="K88" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" s="76" t="s">
+        <v>75</v>
       </c>
       <c r="M88" s="34" t="s">
         <v>76</v>
@@ -8261,90 +8658,204 @@
       <c r="N88" s="35"/>
       <c r="O88" s="30"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1">
       <c r="A89" s="35"/>
       <c r="B89" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="33"/>
+      <c r="G89" s="76"/>
       <c r="H89" s="32"/>
-      <c r="I89" s="33" t="s">
+      <c r="I89" s="76" t="s">
         <v>73</v>
       </c>
       <c r="J89" s="30"/>
-      <c r="K89" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="L89" s="33" t="s">
+      <c r="K89" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="N89" s="35"/>
       <c r="O89" s="30"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1">
       <c r="A90" s="35"/>
-      <c r="B90" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="32" t="s">
+      <c r="B90" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="76"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J90" s="30"/>
+      <c r="K90" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="L90" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="N90" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O90" s="30"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A91" s="35"/>
+      <c r="B91" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J91" s="30"/>
+      <c r="K91" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="N91" s="35"/>
+      <c r="O91" s="30"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A92" s="35"/>
+      <c r="B92" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="76"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J92" s="30"/>
+      <c r="K92" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L92" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N92" s="35"/>
+      <c r="O92" s="30"/>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A93" s="35"/>
+      <c r="B93" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="76"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J93" s="30"/>
+      <c r="K93" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="L93" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M93" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="N93" s="35"/>
+      <c r="O93" s="30"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A94" s="35"/>
+      <c r="B94" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="33" t="s">
+      <c r="I94" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J90" s="30"/>
-      <c r="K90" s="36" t="s">
+      <c r="J94" s="30"/>
+      <c r="K94" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="L94" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="M90" s="34" t="s">
+      <c r="M94" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N90" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="O90" s="30"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I91" s="105">
-        <v>85.0</v>
-      </c>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+      <c r="N94" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="O94" s="30"/>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I95" s="105">
+        <v>85</v>
+      </c>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -9250,9 +9761,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Material de Sonido/Tablas de sonido/CueSheet_nolineal.xlsx
+++ b/Material de Sonido/Tablas de sonido/CueSheet_nolineal.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="CueSheet intro" sheetId="2" r:id="rId2"/>
-    <sheet name="CueSheet Menu" sheetId="3" r:id="rId3"/>
-    <sheet name="CueSheet Nivel 1" sheetId="4" r:id="rId4"/>
+    <sheet name="CueSheet Creditos" sheetId="5" r:id="rId3"/>
+    <sheet name="CueSheet Menu" sheetId="3" r:id="rId4"/>
+    <sheet name="CueSheet Nivel 1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="262">
   <si>
     <t>Cue-Sheet intro</t>
   </si>
@@ -385,21 +386,12 @@
     <t>Sonará campanitas mágicas cuando aparezca el puzzle</t>
   </si>
   <si>
-    <t>Celebración fin de nivel</t>
-  </si>
-  <si>
-    <t>efectos de sonido de celebracion por superar el nivel</t>
-  </si>
-  <si>
     <t>Celebración de triunfo</t>
   </si>
   <si>
     <t>Sonido de triunfo cuando vencemos a la muerte</t>
   </si>
   <si>
-    <t>Sonido cuando te matan, que la muerte se ria por ejemplo</t>
-  </si>
-  <si>
     <t>SFX/Movimientos bloques</t>
   </si>
   <si>
@@ -751,9 +743,6 @@
     <t>SFX/Dialogo tipo2</t>
   </si>
   <si>
-    <t>SFX/pulsar boton de menu</t>
-  </si>
-  <si>
     <t>SFX/ruido dejar objeto</t>
   </si>
   <si>
@@ -775,14 +764,53 @@
     <t>SFX/Boss derrotado</t>
   </si>
   <si>
-    <t>SFX/Nivel superado</t>
+    <t>Musica/Creditos 1</t>
+  </si>
+  <si>
+    <t>Musica/Creditos 2</t>
+  </si>
+  <si>
+    <t>Ambiente epico fantastico</t>
+  </si>
+  <si>
+    <t>Ambiente triunfal de tranquilidad</t>
+  </si>
+  <si>
+    <t>Aun no se ha realizado el trailer, suponemos que incluira algunos sonidos del nivel 1</t>
+  </si>
+  <si>
+    <t>SFX/pulsar boton de menu tipo 1</t>
+  </si>
+  <si>
+    <t>SFX/pulsar boton de menu tipo 2</t>
+  </si>
+  <si>
+    <t>Musica/menu alternativa</t>
+  </si>
+  <si>
+    <t>Si da tiempo a hacerla</t>
+  </si>
+  <si>
+    <t>para boton normal</t>
+  </si>
+  <si>
+    <t>Para boton especial</t>
+  </si>
+  <si>
+    <t>Este podria ser para redirigir a la pantalla de puntuaciones en una pagina web externa</t>
+  </si>
+  <si>
+    <t>Sonido cuando te matan, que la muerte se ria por ejemplo o comente algo, y que suene unas notas que expresen decepcion</t>
+  </si>
+  <si>
+    <t>SFX/Personaje grito muerte masculino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -874,6 +902,29 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1355,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1538,7 +1589,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1632,6 +1682,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1714,7 +1798,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1725,13 +1808,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1749,7 +1831,7 @@
     <xdr:ext cx="4229100" cy="3038475"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3289,14 +3371,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="3" width="6.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="11" width="2" customWidth="1"/>
     <col min="12" max="12" width="7.375" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
@@ -3453,149 +3537,1869 @@
       <c r="L5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="72" t="s">
         <v>85</v>
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="77" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="78"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="68"/>
-      <c r="E6" s="79"/>
+      <c r="E6" s="107" t="s">
+        <v>78</v>
+      </c>
       <c r="F6" s="70"/>
+      <c r="G6" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="81"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="81"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="81"/>
+    </row>
+    <row r="9" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="80"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="81"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="80"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="81"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="81"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="81"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="81"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="81"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="81"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="81"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="81"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="81"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="81"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="81"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="81"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="81"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="80"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="81"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="102">
+        <f>COUNTA(E:E)-1</f>
+        <v>22</v>
+      </c>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="29.25" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="32.375" customWidth="1"/>
+    <col min="17" max="17" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="32.25" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="68">
+        <v>0</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="77">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="73"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>251</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="82"/>
+      <c r="O6" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="43"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
-      <c r="K7" s="81"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="82"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="43"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="79"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
-      <c r="K8" s="81"/>
+      <c r="K8" s="80"/>
       <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="70"/>
       <c r="O8" s="70"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="82"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="43"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="79"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
       <c r="J9" s="70"/>
-      <c r="K9" s="81"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="70"/>
-      <c r="M9" s="73"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="79"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
       <c r="J10" s="70"/>
-      <c r="K10" s="81"/>
+      <c r="K10" s="80"/>
       <c r="L10" s="70"/>
-      <c r="M10" s="73"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P10" s="74"/>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="96"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
+      <c r="D12" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3604,19 +5408,19 @@
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
+      <c r="D13" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -3626,18 +5430,21 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="102">
+        <f>COUNTA(E:E)-1</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -4630,16 +6437,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -4807,55 +6614,88 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="A7" s="35"/>
-      <c r="B7" s="91" t="s">
-        <v>244</v>
+      <c r="B7" s="112" t="s">
+        <v>253</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>257</v>
+      </c>
       <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="M7" s="34"/>
       <c r="N7" s="35"/>
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1">
       <c r="A8" s="35"/>
-      <c r="B8" s="31"/>
+      <c r="B8" s="112" t="s">
+        <v>254</v>
+      </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="114" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>258</v>
+      </c>
       <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="N8" s="113" t="s">
+        <v>259</v>
+      </c>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1">
       <c r="A9" s="35"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="I9" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="113" t="s">
+        <v>256</v>
+      </c>
       <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1">
@@ -4924,7 +6764,15 @@
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
+      <c r="H15" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="102">
+        <f>COUNTA(B:B)-3</f>
+        <v>5</v>
+      </c>
+    </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="17" spans="17:23" ht="15.75" customHeight="1"/>
     <row r="18" spans="17:23" ht="13.5" customHeight="1"/>
@@ -5920,12 +7768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -6316,14 +8164,12 @@
         <v>78</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="115" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G14" s="30"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33" t="s">
         <v>73</v>
@@ -6349,12 +8195,10 @@
         <v>82</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
@@ -6368,7 +8212,7 @@
       <c r="L15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="73" t="s">
         <v>86</v>
       </c>
       <c r="N15" s="35" t="s">
@@ -6382,13 +8226,11 @@
         <v>88</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="115" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="33"/>
-      <c r="F16" s="76" t="s">
-        <v>23</v>
-      </c>
+      <c r="F16" s="75"/>
       <c r="G16" s="33"/>
       <c r="H16" s="32"/>
       <c r="I16" s="33" t="s">
@@ -6398,10 +8240,10 @@
       <c r="K16" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="73" t="s">
         <v>91</v>
       </c>
       <c r="N16" s="35" t="s">
@@ -6415,12 +8257,10 @@
         <v>93</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="32"/>
@@ -6434,7 +8274,7 @@
       <c r="L17" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="74" t="s">
+      <c r="M17" s="73" t="s">
         <v>95</v>
       </c>
       <c r="N17" s="30" t="s">
@@ -6448,12 +8288,10 @@
         <v>97</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
@@ -6467,7 +8305,7 @@
       <c r="L18" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="74" t="s">
+      <c r="M18" s="73" t="s">
         <v>100</v>
       </c>
       <c r="N18" s="35" t="s">
@@ -6481,14 +8319,12 @@
         <v>102</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="119" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G19" s="30"/>
       <c r="H19" s="32"/>
       <c r="I19" s="33" t="s">
         <v>73</v>
@@ -6500,10 +8336,10 @@
       <c r="L19" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="74" t="s">
+      <c r="M19" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="N19" s="80" t="s">
+      <c r="N19" s="79" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6513,14 +8349,12 @@
         <v>105</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="115" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="32"/>
       <c r="I20" s="33" t="s">
         <v>73</v>
@@ -6532,7 +8366,7 @@
       <c r="L20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="74" t="s">
+      <c r="M20" s="73" t="s">
         <v>106</v>
       </c>
       <c r="N20" s="35" t="s">
@@ -6543,14 +8377,14 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="91" t="s">
-        <v>242</v>
+      <c r="B21" s="90" t="s">
+        <v>239</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="32"/>
@@ -6572,25 +8406,25 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="35"/>
-      <c r="B22" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76" t="s">
+      <c r="B22" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="32"/>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="34"/>
@@ -6602,25 +8436,25 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="35"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="32"/>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M23" s="32"/>
@@ -6631,20 +8465,18 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="51" t="s">
@@ -6662,58 +8494,54 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="35"/>
-      <c r="B25" s="91" t="s">
-        <v>245</v>
+      <c r="B25" s="90" t="s">
+        <v>241</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="32"/>
-      <c r="I25" s="76" t="s">
+      <c r="I25" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="106" t="s">
-        <v>246</v>
+      <c r="J25" s="105" t="s">
+        <v>242</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="36" t="s">
         <v>35</v>
       </c>
       <c r="M25" s="32"/>
-      <c r="N25" s="107" t="s">
-        <v>247</v>
+      <c r="N25" s="106" t="s">
+        <v>243</v>
       </c>
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="35"/>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="32"/>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J26" s="30"/>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="76" t="s">
+      <c r="L26" s="75" t="s">
         <v>117</v>
       </c>
       <c r="M26" s="32"/>
@@ -6724,27 +8552,25 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="35"/>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76" t="s">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="32"/>
@@ -6755,27 +8581,25 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="35"/>
-      <c r="B28" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="B28" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="32"/>
-      <c r="I28" s="76" t="s">
+      <c r="I28" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M28" s="32"/>
@@ -6786,27 +8610,25 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="35"/>
-      <c r="B29" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76" t="s">
+      <c r="B29" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="32"/>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76" t="s">
+      <c r="K29" s="75"/>
+      <c r="L29" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="32"/>
@@ -6817,121 +8639,107 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="35"/>
-      <c r="B30" s="91" t="s">
-        <v>252</v>
-      </c>
+      <c r="B30" s="90"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G30" s="115"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>122</v>
-      </c>
+      <c r="I30" s="75"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="76" t="s">
-        <v>35</v>
-      </c>
+      <c r="L30" s="75"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="35" t="s">
-        <v>123</v>
-      </c>
+      <c r="N30" s="35"/>
       <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="35"/>
-      <c r="B31" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76" t="s">
+      <c r="B31" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="32"/>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="35"/>
-      <c r="B32" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="84" t="s">
+      <c r="B32" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="76" t="s">
+      <c r="I32" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J32" s="30"/>
-      <c r="K32" s="76" t="s">
+      <c r="K32" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="76" t="s">
+      <c r="L32" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M32" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="35" t="s">
-        <v>126</v>
+      <c r="N32" s="113" t="s">
+        <v>260</v>
       </c>
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="35"/>
-      <c r="B33" s="91" t="s">
-        <v>127</v>
+      <c r="B33" s="90" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="30" t="s">
+      <c r="E33" s="75"/>
+      <c r="F33" s="115" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="30"/>
-      <c r="K33" s="76" t="s">
+      <c r="K33" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="76" t="s">
+      <c r="L33" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="74" t="s">
+      <c r="M33" s="73" t="s">
         <v>76</v>
       </c>
       <c r="N33" s="35"/>
@@ -6939,25 +8747,25 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="35"/>
-      <c r="B34" s="91" t="s">
-        <v>15</v>
+      <c r="B34" s="112" t="s">
+        <v>125</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="76"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="K34" s="76" t="s">
+      <c r="K34" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="76" t="s">
+      <c r="L34" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M34" s="34" t="s">
@@ -6968,25 +8776,25 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="35"/>
-      <c r="B35" s="91" t="s">
-        <v>128</v>
+      <c r="B35" s="112" t="s">
+        <v>261</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="76"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J35" s="30"/>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="76" t="s">
+      <c r="L35" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M35" s="34" t="s">
@@ -6997,87 +8805,87 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="91" t="s">
-        <v>129</v>
+      <c r="B36" s="112" t="s">
+        <v>128</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="76"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="76" t="s">
+      <c r="I36" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J36" s="30"/>
-      <c r="K36" s="76" t="s">
+      <c r="K36" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="76" t="s">
+      <c r="L36" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M36" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="35"/>
-      <c r="B37" s="91" t="s">
-        <v>131</v>
+      <c r="B37" s="90" t="s">
+        <v>126</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="76"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="76" t="s">
+      <c r="I37" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="30"/>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="76" t="s">
+      <c r="L37" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M37" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="35"/>
-      <c r="B38" s="91" t="s">
-        <v>132</v>
+      <c r="B38" s="90" t="s">
+        <v>129</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="115" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="76" t="s">
+      <c r="I38" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J38" s="30"/>
-      <c r="K38" s="76" t="s">
+      <c r="K38" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="76" t="s">
+      <c r="L38" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M38" s="34"/>
@@ -7086,430 +8894,428 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="35"/>
-      <c r="B39" s="91" t="s">
-        <v>133</v>
+      <c r="B39" s="90" t="s">
+        <v>130</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="115" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="76" t="s">
+      <c r="I39" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J39" s="30"/>
-      <c r="K39" s="76" t="s">
+      <c r="K39" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="76" t="s">
+      <c r="L39" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M39" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="35"/>
-      <c r="B40" s="91" t="s">
-        <v>135</v>
+      <c r="B40" s="90" t="s">
+        <v>132</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="115" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J40" s="30"/>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="76" t="s">
+      <c r="L40" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="35"/>
-      <c r="B41" s="91" t="s">
-        <v>137</v>
+      <c r="B41" s="90" t="s">
+        <v>134</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="115" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J41" s="30"/>
-      <c r="K41" s="76" t="s">
+      <c r="K41" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="76" t="s">
+      <c r="L41" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M41" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76" t="s">
+      <c r="B42" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="76"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="32"/>
-      <c r="I42" s="76" t="s">
+      <c r="I42" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J42" s="30"/>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="76" t="s">
+      <c r="L42" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="74" t="s">
-        <v>140</v>
+      <c r="M42" s="73" t="s">
+        <v>137</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O42" s="30"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76" t="s">
+      <c r="B43" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="76" t="s">
+      <c r="I43" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J43" s="30"/>
-      <c r="K43" s="76" t="s">
+      <c r="K43" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="76" t="s">
+      <c r="L43" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M43" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N43" s="90" t="s">
-        <v>143</v>
+      <c r="N43" s="89" t="s">
+        <v>140</v>
       </c>
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="35"/>
-      <c r="B44" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76" t="s">
+      <c r="B44" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="32"/>
-      <c r="I44" s="76" t="s">
+      <c r="I44" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J44" s="30"/>
-      <c r="K44" s="76" t="s">
+      <c r="K44" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L44" s="76" t="s">
+      <c r="L44" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M44" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="A45" s="35"/>
-      <c r="B45" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76" t="s">
+      <c r="B45" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="76" t="s">
+      <c r="I45" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J45" s="30"/>
-      <c r="K45" s="76" t="s">
+      <c r="K45" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="76" t="s">
+      <c r="L45" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M45" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N45" s="90" t="s">
-        <v>138</v>
+      <c r="N45" s="89" t="s">
+        <v>135</v>
       </c>
       <c r="O45" s="30"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="35"/>
-      <c r="B46" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76" t="s">
+      <c r="B46" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="76" t="s">
+      <c r="I46" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J46" s="30"/>
-      <c r="K46" s="76" t="s">
+      <c r="K46" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="76" t="s">
+      <c r="L46" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M46" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="35"/>
-      <c r="B47" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76" t="s">
+      <c r="B47" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="76" t="s">
+      <c r="I47" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J47" s="30"/>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="76" t="s">
+      <c r="L47" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M47" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="35"/>
-      <c r="B48" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="76" t="s">
+      <c r="B48" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="76"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="76" t="s">
+      <c r="I48" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J48" s="30"/>
-      <c r="K48" s="76" t="s">
+      <c r="K48" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="76" t="s">
+      <c r="L48" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M48" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="35"/>
-      <c r="B49" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76" t="s">
+      <c r="B49" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="76"/>
+      <c r="G49" s="75"/>
       <c r="H49" s="32"/>
-      <c r="I49" s="76" t="s">
+      <c r="I49" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J49" s="30"/>
-      <c r="K49" s="76" t="s">
+      <c r="K49" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="76" t="s">
+      <c r="L49" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M49" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="35"/>
-      <c r="B50" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76" t="s">
+      <c r="B50" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="76"/>
+      <c r="G50" s="75"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="76" t="s">
+      <c r="I50" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J50" s="30"/>
-      <c r="K50" s="76" t="s">
+      <c r="K50" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="76" t="s">
+      <c r="L50" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M50" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="A51" s="35"/>
-      <c r="B51" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76" t="s">
+      <c r="B51" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="76"/>
+      <c r="G51" s="75"/>
       <c r="H51" s="32"/>
-      <c r="I51" s="76" t="s">
+      <c r="I51" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J51" s="30"/>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="76" t="s">
+      <c r="L51" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M51" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
       <c r="A52" s="35"/>
-      <c r="B52" s="91" t="s">
-        <v>159</v>
+      <c r="B52" s="90" t="s">
+        <v>156</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="118" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="76" t="s">
+      <c r="I52" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J52" s="30"/>
-      <c r="K52" s="76" t="s">
+      <c r="K52" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="76" t="s">
+      <c r="L52" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M52" s="34" t="s">
@@ -7520,25 +9326,25 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1">
       <c r="A53" s="35"/>
-      <c r="B53" s="91" t="s">
-        <v>160</v>
+      <c r="B53" s="90" t="s">
+        <v>157</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="118" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="30"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J53" s="30"/>
-      <c r="K53" s="76" t="s">
+      <c r="K53" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="76" t="s">
+      <c r="L53" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M53" s="34" t="s">
@@ -7549,27 +9355,25 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1">
       <c r="A54" s="35"/>
-      <c r="B54" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="76"/>
+      <c r="B54" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="75"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E54" s="30"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="32"/>
-      <c r="I54" s="76" t="s">
+      <c r="I54" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J54" s="30"/>
-      <c r="K54" s="76" t="s">
+      <c r="K54" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="76" t="s">
+      <c r="L54" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M54" s="34" t="s">
@@ -7580,27 +9384,25 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="91" t="s">
-        <v>162</v>
+      <c r="B55" s="90" t="s">
+        <v>159</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
-      <c r="E55" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E55" s="30"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H55" s="32"/>
-      <c r="I55" s="76" t="s">
+      <c r="I55" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J55" s="30"/>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L55" s="76" t="s">
+      <c r="L55" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M55" s="34"/>
@@ -7609,151 +9411,149 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="91" t="s">
-        <v>163</v>
+      <c r="B56" s="90" t="s">
+        <v>160</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
-      <c r="E56" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E56" s="30"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="115" t="s">
         <v>24</v>
       </c>
       <c r="H56" s="32"/>
-      <c r="I56" s="76" t="s">
+      <c r="I56" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J56" s="30"/>
-      <c r="K56" s="76" t="s">
+      <c r="K56" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="76" t="s">
+      <c r="L56" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N56" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="91" t="s">
-        <v>165</v>
+      <c r="B57" s="90" t="s">
+        <v>162</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="115" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="76" t="s">
+      <c r="I57" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J57" s="30"/>
-      <c r="K57" s="76" t="s">
+      <c r="K57" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L57" s="76" t="s">
+      <c r="L57" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M57" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O57" s="30"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76" t="s">
+      <c r="B58" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="76" t="s">
+      <c r="I58" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J58" s="30"/>
-      <c r="K58" s="76" t="s">
+      <c r="K58" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L58" s="76" t="s">
+      <c r="L58" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O58" s="30"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1">
       <c r="A59" s="35"/>
-      <c r="B59" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76" t="s">
+      <c r="B59" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="76"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J59" s="30"/>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L59" s="76" t="s">
+      <c r="L59" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M59" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N59" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="N59" s="35" t="s">
-        <v>171</v>
       </c>
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1">
       <c r="A60" s="35"/>
-      <c r="B60" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76" t="s">
+      <c r="B60" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="76" t="s">
+      <c r="I60" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J60" s="30"/>
-      <c r="K60" s="76" t="s">
+      <c r="K60" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="76" t="s">
+      <c r="L60" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M60" s="34" t="s">
@@ -7764,25 +9564,25 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" customHeight="1">
       <c r="A61" s="35"/>
-      <c r="B61" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76" t="s">
+      <c r="B61" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="76" t="s">
+      <c r="I61" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J61" s="30"/>
-      <c r="K61" s="76" t="s">
+      <c r="K61" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L61" s="76" t="s">
+      <c r="L61" s="75" t="s">
         <v>99</v>
       </c>
       <c r="M61" s="34" t="s">
@@ -7793,315 +9593,297 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1">
       <c r="A62" s="35"/>
-      <c r="B62" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76" t="s">
+      <c r="B62" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H62" s="32"/>
-      <c r="I62" s="76" t="s">
+      <c r="I62" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J62" s="30"/>
-      <c r="K62" s="76" t="s">
+      <c r="K62" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L62" s="76" t="s">
+      <c r="L62" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M62" s="32"/>
       <c r="N62" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1">
       <c r="A63" s="35"/>
-      <c r="B63" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76" t="s">
+      <c r="B63" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="76" t="s">
+      <c r="I63" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J63" s="30"/>
-      <c r="K63" s="76" t="s">
+      <c r="K63" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L63" s="76" t="s">
+      <c r="L63" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M63" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1">
       <c r="A64" s="35"/>
-      <c r="B64" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76" t="s">
+      <c r="B64" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" s="76" t="s">
+      <c r="H64" s="83"/>
+      <c r="I64" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J64" s="30"/>
-      <c r="K64" s="76" t="s">
+      <c r="K64" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L64" s="76" t="s">
+      <c r="L64" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M64" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1">
       <c r="A65" s="35"/>
-      <c r="B65" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76" t="s">
+      <c r="B65" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="76"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="76" t="s">
+      <c r="I65" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J65" s="30"/>
-      <c r="K65" s="76" t="s">
+      <c r="K65" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="76" t="s">
+      <c r="L65" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M65" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N65" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1">
       <c r="A66" s="35"/>
-      <c r="B66" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76" t="s">
+      <c r="B66" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H66" s="32"/>
-      <c r="I66" s="76" t="s">
+      <c r="I66" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M66" s="32"/>
       <c r="N66" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O66" s="30"/>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1">
       <c r="A67" s="35"/>
-      <c r="B67" s="91" t="s">
-        <v>185</v>
+      <c r="B67" s="90" t="s">
+        <v>182</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="115" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="30"/>
-      <c r="G67" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="76" t="s">
-        <v>186</v>
+      <c r="G67" s="30"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="75" t="s">
+        <v>183</v>
       </c>
       <c r="J67" s="30"/>
       <c r="K67" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L67" s="76" t="s">
+      <c r="L67" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M67" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O67" s="30"/>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1">
       <c r="A68" s="35"/>
-      <c r="B68" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="76" t="s">
+      <c r="B68" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="76"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="32"/>
-      <c r="I68" s="76" t="s">
+      <c r="I68" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="30"/>
-      <c r="K68" s="76" t="s">
+      <c r="K68" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="76" t="s">
+      <c r="L68" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M68" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N68" s="35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O68" s="30"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1">
       <c r="A69" s="35"/>
-      <c r="B69" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="76" t="s">
+      <c r="B69" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="76"/>
+      <c r="G69" s="75"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="76" t="s">
+      <c r="I69" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J69" s="30"/>
-      <c r="K69" s="76" t="s">
+      <c r="K69" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L69" s="76" t="s">
+      <c r="L69" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M69" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N69" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O69" s="30"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1">
       <c r="A70" s="35"/>
-      <c r="B70" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76" t="s">
+      <c r="B70" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="76" t="s">
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J70" s="30"/>
-      <c r="K70" s="76" t="s">
+      <c r="K70" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L70" s="76" t="s">
+      <c r="L70" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N70" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O70" s="30"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1">
       <c r="A71" s="35"/>
-      <c r="B71" s="91" t="s">
-        <v>195</v>
+      <c r="B71" s="90" t="s">
+        <v>192</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="115" t="s">
         <v>22</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
       <c r="H71" s="32"/>
-      <c r="I71" s="76" t="s">
+      <c r="I71" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J71" s="30"/>
-      <c r="K71" s="76" t="s">
+      <c r="K71" s="75" t="s">
         <v>74</v>
       </c>
       <c r="L71" s="36" t="s">
@@ -8111,66 +9893,62 @@
         <v>76</v>
       </c>
       <c r="N71" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O71" s="30"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1">
       <c r="A72" s="35"/>
-      <c r="B72" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76" t="s">
+      <c r="B72" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="76" t="s">
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J72" s="30"/>
-      <c r="K72" s="76" t="s">
+      <c r="K72" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L72" s="76" t="s">
+      <c r="L72" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N72" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O72" s="30"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1">
       <c r="A73" s="35"/>
-      <c r="B73" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="76" t="s">
+      <c r="B73" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="76"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="32"/>
-      <c r="I73" s="76" t="s">
+      <c r="I73" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J73" s="30"/>
-      <c r="K73" s="76" t="s">
+      <c r="K73" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L73" s="76" t="s">
+      <c r="L73" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M73" s="34" t="s">
@@ -8181,376 +9959,366 @@
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1">
       <c r="A74" s="35"/>
-      <c r="B74" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76" t="s">
+      <c r="B74" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="32"/>
-      <c r="I74" s="76" t="s">
+      <c r="I74" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J74" s="30"/>
-      <c r="K74" s="76" t="s">
+      <c r="K74" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L74" s="76" t="s">
+      <c r="L74" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M74" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N74" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O74" s="30"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1">
       <c r="A75" s="35"/>
-      <c r="B75" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76" t="s">
-        <v>24</v>
-      </c>
+      <c r="B75" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="75"/>
       <c r="H75" s="32"/>
-      <c r="I75" s="76" t="s">
+      <c r="I75" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J75" s="30"/>
-      <c r="K75" s="76" t="s">
+      <c r="K75" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L75" s="76" t="s">
+      <c r="L75" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M75" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N75" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O75" s="30"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1">
       <c r="A76" s="35"/>
-      <c r="B76" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76" t="s">
+      <c r="B76" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="32"/>
-      <c r="I76" s="76" t="s">
+      <c r="I76" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J76" s="30"/>
-      <c r="K76" s="76" t="s">
+      <c r="K76" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L76" s="76" t="s">
+      <c r="L76" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M76" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N76" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1">
       <c r="A77" s="35"/>
-      <c r="B77" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76" t="s">
+      <c r="B77" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="76" t="s">
+      <c r="H77" s="83"/>
+      <c r="I77" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J77" s="30"/>
-      <c r="K77" s="76" t="s">
+      <c r="K77" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L77" s="76" t="s">
+      <c r="L77" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N77" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O77" s="30"/>
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1">
       <c r="A78" s="35"/>
-      <c r="B78" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76" t="s">
-        <v>24</v>
-      </c>
+      <c r="B78" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="75"/>
       <c r="H78" s="32"/>
-      <c r="I78" s="76" t="s">
+      <c r="I78" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J78" s="30"/>
-      <c r="K78" s="76" t="s">
+      <c r="K78" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L78" s="76" t="s">
-        <v>212</v>
+      <c r="L78" s="75" t="s">
+        <v>209</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N78" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O78" s="30"/>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1">
       <c r="A79" s="35"/>
-      <c r="B79" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76" t="s">
-        <v>24</v>
-      </c>
+      <c r="B79" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="75"/>
       <c r="H79" s="32"/>
-      <c r="I79" s="76" t="s">
+      <c r="I79" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J79" s="30"/>
-      <c r="K79" s="76" t="s">
+      <c r="K79" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L79" s="76" t="s">
+      <c r="L79" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N79" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O79" s="30"/>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1">
       <c r="A80" s="35"/>
-      <c r="B80" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76" t="s">
+      <c r="B80" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="76"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="32"/>
-      <c r="I80" s="76" t="s">
+      <c r="I80" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J80" s="30"/>
-      <c r="K80" s="76" t="s">
+      <c r="K80" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L80" s="76" t="s">
+      <c r="L80" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M80" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N80" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O80" s="30"/>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1">
       <c r="A81" s="35"/>
-      <c r="B81" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76" t="s">
+      <c r="B81" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="76" t="s">
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J81" s="30"/>
-      <c r="K81" s="76" t="s">
+      <c r="K81" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L81" s="76" t="s">
+      <c r="L81" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M81" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N81" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O81" s="30"/>
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1">
       <c r="A82" s="35"/>
-      <c r="B82" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76" t="s">
+      <c r="B82" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="76"/>
+      <c r="G82" s="75"/>
       <c r="H82" s="32"/>
-      <c r="I82" s="76" t="s">
+      <c r="I82" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J82" s="30"/>
-      <c r="K82" s="76" t="s">
+      <c r="K82" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L82" s="76" t="s">
+      <c r="L82" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="M82" s="104" t="s">
+      <c r="M82" s="103" t="s">
         <v>76</v>
       </c>
       <c r="N82" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O82" s="30"/>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1">
       <c r="A83" s="35"/>
-      <c r="B83" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76" t="s">
+      <c r="B83" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="76"/>
+      <c r="G83" s="75"/>
       <c r="H83" s="32"/>
-      <c r="I83" s="76" t="s">
+      <c r="I83" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J83" s="30"/>
-      <c r="K83" s="76" t="s">
+      <c r="K83" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L83" s="76" t="s">
+      <c r="L83" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M83" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N83" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O83" s="30"/>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1">
       <c r="A84" s="35"/>
-      <c r="B84" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76" t="s">
+      <c r="B84" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
       <c r="H84" s="32"/>
-      <c r="I84" s="76" t="s">
+      <c r="I84" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J84" s="30"/>
-      <c r="K84" s="76" t="s">
+      <c r="K84" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L84" s="76" t="s">
+      <c r="L84" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M84" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N84" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O84" s="30"/>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1">
       <c r="A85" s="35"/>
-      <c r="B85" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76" t="s">
+      <c r="B85" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H85" s="32"/>
-      <c r="I85" s="76" t="s">
+      <c r="I85" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J85" s="30"/>
-      <c r="K85" s="76" t="s">
+      <c r="K85" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L85" s="76" t="s">
+      <c r="L85" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M85" s="34"/>
@@ -8559,97 +10327,87 @@
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1">
       <c r="A86" s="35"/>
-      <c r="B86" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="76" t="s">
+      <c r="B86" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H86" s="32"/>
-      <c r="I86" s="76" t="s">
+      <c r="I86" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J86" s="30"/>
-      <c r="K86" s="76" t="s">
+      <c r="K86" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L86" s="76" t="s">
+      <c r="L86" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M86" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N86" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O86" s="30"/>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1">
       <c r="A87" s="35"/>
-      <c r="B87" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="76" t="s">
+      <c r="B87" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H87" s="32"/>
-      <c r="I87" s="76" t="s">
+      <c r="I87" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J87" s="30"/>
-      <c r="K87" s="76" t="s">
+      <c r="K87" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L87" s="76" t="s">
+      <c r="L87" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M87" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N87" s="35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O87" s="30"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1">
       <c r="A88" s="35"/>
-      <c r="B88" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="76" t="s">
+      <c r="B88" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="76"/>
+      <c r="G88" s="75"/>
       <c r="H88" s="32"/>
-      <c r="I88" s="76" t="s">
+      <c r="I88" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J88" s="30"/>
-      <c r="K88" s="76" t="s">
+      <c r="K88" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L88" s="76" t="s">
+      <c r="L88" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M88" s="34" t="s">
@@ -8660,25 +10418,25 @@
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1">
       <c r="A89" s="35"/>
-      <c r="B89" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76" t="s">
+      <c r="B89" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="76"/>
+      <c r="G89" s="75"/>
       <c r="H89" s="32"/>
-      <c r="I89" s="76" t="s">
+      <c r="I89" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J89" s="30"/>
-      <c r="K89" s="76" t="s">
+      <c r="K89" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L89" s="76" t="s">
+      <c r="L89" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M89" s="34" t="s">
@@ -8689,85 +10447,85 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1">
       <c r="A90" s="35"/>
-      <c r="B90" s="91" t="s">
+      <c r="B90" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="32"/>
+      <c r="I90" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J90" s="30"/>
+      <c r="K90" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="L90" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="N90" s="35" t="s">
         <v>232</v>
-      </c>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="76"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="J90" s="30"/>
-      <c r="K90" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="L90" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="N90" s="35" t="s">
-        <v>235</v>
       </c>
       <c r="O90" s="30"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1">
       <c r="A91" s="35"/>
-      <c r="B91" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76" t="s">
+      <c r="B91" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="114" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="32"/>
-      <c r="I91" s="76" t="s">
+      <c r="I91" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J91" s="30"/>
-      <c r="K91" s="76" t="s">
+      <c r="K91" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="L91" s="76" t="s">
+      <c r="L91" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N91" s="35"/>
       <c r="O91" s="30"/>
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1">
       <c r="A92" s="35"/>
-      <c r="B92" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76" t="s">
+      <c r="B92" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G92" s="76"/>
+      <c r="G92" s="114"/>
       <c r="H92" s="32"/>
-      <c r="I92" s="76" t="s">
+      <c r="I92" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J92" s="30"/>
-      <c r="K92" s="76" t="s">
+      <c r="K92" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L92" s="76" t="s">
+      <c r="L92" s="75" t="s">
         <v>35</v>
       </c>
       <c r="M92" s="34" t="s">
@@ -8778,61 +10536,61 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" customHeight="1">
       <c r="A93" s="35"/>
-      <c r="B93" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76" t="s">
+      <c r="B93" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="76"/>
+      <c r="G93" s="114"/>
       <c r="H93" s="32"/>
-      <c r="I93" s="76" t="s">
+      <c r="I93" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J93" s="30"/>
-      <c r="K93" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="L93" s="76" t="s">
+      <c r="K93" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="L93" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N93" s="35"/>
       <c r="O93" s="30"/>
     </row>
     <row r="94" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A94" s="35"/>
-      <c r="B94" s="91" t="s">
-        <v>240</v>
+      <c r="B94" s="90" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
       <c r="E94" s="30"/>
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
-      <c r="H94" s="32" t="s">
+      <c r="H94" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I94" s="76" t="s">
+      <c r="I94" s="75" t="s">
         <v>73</v>
       </c>
       <c r="J94" s="30"/>
       <c r="K94" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L94" s="76" t="s">
+      <c r="L94" s="75" t="s">
         <v>75</v>
       </c>
       <c r="M94" s="34" t="s">
         <v>76</v>
       </c>
       <c r="N94" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O94" s="30"/>
     </row>
@@ -8844,10 +10602,11 @@
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I95" s="105">
-        <v>85</v>
+        <v>199</v>
+      </c>
+      <c r="I95" s="104">
+        <f>COUNTA(B:B)-3</f>
+        <v>89</v>
       </c>
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
